--- a/Base_organizada/BBDD_Ortial/BBDD_Ortigal_Salida_2021.xlsx
+++ b/Base_organizada/BBDD_Ortial/BBDD_Ortigal_Salida_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyk\OneDrive\Documents\AulaGlobalRepo\Proyecto_AulaGlobal\Base_organizada\BBDD_Ortial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_Ortial/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF98070-409B-4FAF-985A-CAE1E0133107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-870" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2º" sheetId="13" r:id="rId1"/>
@@ -4422,26 +4422,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3D18D0-EAC3-4902-A18E-53A4CF9F5C20}">
   <dimension ref="A1:JD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" style="3"/>
-    <col min="12" max="12" width="11.44140625" style="3"/>
-    <col min="13" max="13" width="11.6640625" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" style="3"/>
-    <col min="21" max="21" width="11.44140625" style="3"/>
-    <col min="25" max="27" width="11.44140625" style="3"/>
-    <col min="167" max="167" width="11.44140625" style="3"/>
-    <col min="173" max="173" width="11.44140625" style="3"/>
-    <col min="178" max="178" width="11.44140625" style="3"/>
-    <col min="186" max="186" width="11.44140625" style="3"/>
-    <col min="194" max="194" width="11.44140625" style="3"/>
-    <col min="227" max="227" width="11.44140625" style="3"/>
-    <col min="262" max="262" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="11.42578125" style="3"/>
+    <col min="13" max="13" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.42578125" style="3"/>
+    <col min="21" max="21" width="11.42578125" style="3"/>
+    <col min="25" max="27" width="11.42578125" style="3"/>
+    <col min="167" max="167" width="11.42578125" style="3"/>
+    <col min="173" max="173" width="11.42578125" style="3"/>
+    <col min="178" max="178" width="11.42578125" style="3"/>
+    <col min="186" max="186" width="11.42578125" style="3"/>
+    <col min="194" max="194" width="11.42578125" style="3"/>
+    <col min="227" max="227" width="11.42578125" style="3"/>
+    <col min="262" max="262" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:264" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10156</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10157</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10158</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10160</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10570</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10571</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10208</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10209</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10574</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10575</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10213</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10636</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11089</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11094</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:264" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11213</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11218</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11219</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11220</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11675</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="21" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11700</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="22" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12230</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="23" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12973</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="24" spans="1:263" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13148</v>
       </c>
@@ -23537,23 +23537,23 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" style="3"/>
-    <col min="12" max="17" width="11.44140625" style="3"/>
-    <col min="21" max="21" width="11.44140625" style="3"/>
-    <col min="25" max="27" width="11.44140625" style="3"/>
-    <col min="167" max="167" width="11.44140625" style="3"/>
-    <col min="173" max="173" width="11.44140625" style="3"/>
-    <col min="178" max="178" width="11.44140625" style="3"/>
-    <col min="186" max="186" width="11.44140625" style="3"/>
-    <col min="194" max="194" width="11.44140625" style="3"/>
-    <col min="227" max="227" width="11.44140625" style="3"/>
-    <col min="262" max="262" width="11.44140625" style="3"/>
-    <col min="268" max="268" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="12" max="17" width="11.42578125" style="3"/>
+    <col min="21" max="21" width="11.42578125" style="3"/>
+    <col min="25" max="27" width="11.42578125" style="3"/>
+    <col min="167" max="167" width="11.42578125" style="3"/>
+    <col min="173" max="173" width="11.42578125" style="3"/>
+    <col min="178" max="178" width="11.42578125" style="3"/>
+    <col min="186" max="186" width="11.42578125" style="3"/>
+    <col min="194" max="194" width="11.42578125" style="3"/>
+    <col min="227" max="227" width="11.42578125" style="3"/>
+    <col min="262" max="262" width="11.42578125" style="3"/>
+    <col min="268" max="268" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10159</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10161</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10162</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10163</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10164</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10210</v>
       </c>
@@ -29249,7 +29249,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10211</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10212</v>
       </c>
@@ -30877,7 +30877,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10214</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11092</v>
       </c>
@@ -32505,7 +32505,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11093</v>
       </c>
@@ -33319,7 +33319,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11215</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11217</v>
       </c>
@@ -34947,7 +34947,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11765</v>
       </c>
@@ -35761,7 +35761,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11679</v>
       </c>
@@ -36575,7 +36575,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11678</v>
       </c>
@@ -37389,7 +37389,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11677</v>
       </c>
@@ -38203,7 +38203,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11676</v>
       </c>
@@ -39017,7 +39017,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11696</v>
       </c>
@@ -39831,7 +39831,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11695</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12570</v>
       </c>
@@ -41459,7 +41459,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12635</v>
       </c>
@@ -42273,7 +42273,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12636</v>
       </c>
@@ -43087,7 +43087,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12972</v>
       </c>
@@ -43919,23 +43919,23 @@
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" style="3"/>
-    <col min="3" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="17" width="11.44140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" style="3"/>
-    <col min="25" max="27" width="11.44140625" style="3"/>
-    <col min="199" max="199" width="11.44140625" style="3"/>
-    <col min="205" max="205" width="11.44140625" style="3"/>
-    <col min="210" max="210" width="11.44140625" style="3"/>
-    <col min="218" max="218" width="11.44140625" style="3"/>
-    <col min="251" max="251" width="11.44140625" style="3"/>
-    <col min="286" max="286" width="11.44140625" style="3"/>
-    <col min="292" max="292" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="3" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="17" width="11.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="3"/>
+    <col min="25" max="27" width="11.42578125" style="3"/>
+    <col min="199" max="199" width="11.42578125" style="3"/>
+    <col min="205" max="205" width="11.42578125" style="3"/>
+    <col min="210" max="210" width="11.42578125" style="3"/>
+    <col min="218" max="218" width="11.42578125" style="3"/>
+    <col min="251" max="251" width="11.42578125" style="3"/>
+    <col min="286" max="286" width="11.42578125" style="3"/>
+    <col min="292" max="292" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:294" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:294" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10572</v>
       </c>
@@ -45704,7 +45704,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10573</v>
       </c>
@@ -46589,7 +46589,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10632</v>
       </c>
@@ -47474,7 +47474,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="5" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10633</v>
       </c>
@@ -48359,7 +48359,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10635</v>
       </c>
@@ -49241,7 +49241,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="7" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11086</v>
       </c>
@@ -50126,7 +50126,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11088</v>
       </c>
@@ -51011,7 +51011,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="9" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11214</v>
       </c>
@@ -51896,7 +51896,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11221</v>
       </c>
@@ -52781,7 +52781,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11222</v>
       </c>
@@ -53666,7 +53666,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12159</v>
       </c>
@@ -54551,7 +54551,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="13" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12160</v>
       </c>
@@ -55436,7 +55436,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="14" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12600</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="15" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12161</v>
       </c>
@@ -57203,7 +57203,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="16" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12571</v>
       </c>
@@ -58088,7 +58088,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="17" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12634</v>
       </c>
@@ -58973,7 +58973,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="18" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12163</v>
       </c>
@@ -59858,7 +59858,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="19" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12637</v>
       </c>
@@ -60743,7 +60743,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12225</v>
       </c>
@@ -61628,7 +61628,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="21" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12226</v>
       </c>
@@ -62513,7 +62513,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="22" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12227</v>
       </c>
@@ -63395,7 +63395,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="23" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12228</v>
       </c>
@@ -64280,7 +64280,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="24" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12229</v>
       </c>
@@ -65165,7 +65165,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="25" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13149</v>
       </c>
@@ -66081,24 +66081,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BAAAED-8CD5-4F8A-8A5A-64F6A04A35FB}">
   <dimension ref="A1:KH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" style="3"/>
-    <col min="12" max="17" width="11.44140625" style="3"/>
-    <col min="21" max="21" width="11.44140625" style="3"/>
-    <col min="25" max="27" width="11.44140625" style="3"/>
-    <col min="199" max="199" width="11.44140625" style="3"/>
-    <col min="205" max="205" width="11.44140625" style="3"/>
-    <col min="210" max="210" width="11.44140625" style="3"/>
-    <col min="218" max="218" width="11.44140625" style="3"/>
-    <col min="251" max="251" width="11.44140625" style="3"/>
-    <col min="286" max="286" width="11.44140625" style="3"/>
-    <col min="292" max="292" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="12" max="17" width="11.42578125" style="3"/>
+    <col min="21" max="21" width="11.42578125" style="3"/>
+    <col min="25" max="27" width="11.42578125" style="3"/>
+    <col min="199" max="199" width="11.42578125" style="3"/>
+    <col min="205" max="205" width="11.42578125" style="3"/>
+    <col min="210" max="210" width="11.42578125" style="3"/>
+    <col min="218" max="218" width="11.42578125" style="3"/>
+    <col min="251" max="251" width="11.42578125" style="3"/>
+    <col min="286" max="286" width="11.42578125" style="3"/>
+    <col min="292" max="292" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:294" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:294" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -66982,7 +66984,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10631</v>
       </c>
@@ -67867,7 +67869,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10634</v>
       </c>
@@ -68752,7 +68754,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="4" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11085</v>
       </c>
@@ -69637,7 +69639,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11087</v>
       </c>
@@ -70522,7 +70524,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="6" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11090</v>
       </c>
@@ -71407,7 +71409,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11091</v>
       </c>
@@ -72292,7 +72294,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11212</v>
       </c>
@@ -73177,7 +73179,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11216</v>
       </c>
@@ -74062,7 +74064,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="10" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11682</v>
       </c>
@@ -74947,7 +74949,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11699</v>
       </c>
@@ -75832,7 +75834,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="12" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11698</v>
       </c>
@@ -76717,7 +76719,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11697</v>
       </c>
@@ -77602,7 +77604,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12158</v>
       </c>
@@ -78484,7 +78486,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="15" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12569</v>
       </c>
@@ -79369,7 +79371,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="16" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12162</v>
       </c>
@@ -80254,7 +80256,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="17" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12970</v>
       </c>
@@ -81136,7 +81138,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12971</v>
       </c>
@@ -82021,7 +82023,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="19" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13534</v>
       </c>
@@ -82925,18 +82927,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83117,18 +83119,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C67A15D-04B7-4E61-9ECA-869B1DE3342D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525A249B-0182-48B7-8209-FE5FC1247ED9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525A249B-0182-48B7-8209-FE5FC1247ED9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C67A15D-04B7-4E61-9ECA-869B1DE3342D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
